--- a/Data/Processing/2024-02-02/RKFORGE.xlsx
+++ b/Data/Processing/2024-02-02/RKFORGE.xlsx
@@ -922,7 +922,7 @@
         <v>271.32</v>
       </c>
       <c r="E8">
-        <v>282.08</v>
+        <v>282.09</v>
       </c>
       <c r="F8">
         <v>270.02</v>
@@ -934,7 +934,7 @@
         <v>36</v>
       </c>
       <c r="I8">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="J8">
         <v>5.41</v>
@@ -946,7 +946,7 @@
         <v>1.95</v>
       </c>
       <c r="M8">
-        <v>-1.83</v>
+        <v>-1.82</v>
       </c>
       <c r="N8">
         <v>5.96</v>
@@ -975,7 +975,7 @@
         <v>278.05</v>
       </c>
       <c r="F9">
-        <v>282.08</v>
+        <v>282.09</v>
       </c>
       <c r="G9">
         <v>332447</v>
@@ -993,7 +993,7 @@
         <v>-3.18</v>
       </c>
       <c r="L9">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="M9">
         <v>0.9900000000000002</v>
@@ -2802,7 +2802,7 @@
         <v>2.48</v>
       </c>
       <c r="O45">
-        <v>274.0488636363636</v>
+        <v>274.0490909090909</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>3.05</v>
       </c>
       <c r="O46">
-        <v>275.0231818181819</v>
+        <v>275.0234090909091</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>2.44</v>
       </c>
       <c r="O47">
-        <v>275.8479545454545</v>
+        <v>275.8481818181818</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>2.67</v>
       </c>
       <c r="O48">
-        <v>276.8040909090909</v>
+        <v>276.8043181818182</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>7.14</v>
       </c>
       <c r="O49">
-        <v>277.5222727272728</v>
+        <v>277.5225</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>4.52</v>
       </c>
       <c r="O50">
-        <v>278.5</v>
+        <v>278.5002272727273</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>5.5</v>
       </c>
       <c r="O51">
-        <v>279.7054545454545</v>
+        <v>279.7056818181818</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>3.67</v>
       </c>
       <c r="O67">
-        <v>302.9195454545454</v>
+        <v>302.9195454545455</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>3.05</v>
       </c>
       <c r="O68">
-        <v>304.4377272727272</v>
+        <v>304.4377272727273</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>6.6</v>
       </c>
       <c r="O70">
-        <v>308.1102272727272</v>
+        <v>308.1102272727273</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>2.88</v>
       </c>
       <c r="O73">
-        <v>314.2336363636364</v>
+        <v>314.2336363636363</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>2.49</v>
       </c>
       <c r="O76">
-        <v>320.0493181818182</v>
+        <v>320.0493181818181</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>5.56</v>
       </c>
       <c r="O77">
-        <v>322.7095454545455</v>
+        <v>322.7095454545454</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2.92</v>
       </c>
       <c r="O79">
-        <v>327.6843181818182</v>
+        <v>327.6843181818181</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>3.19</v>
       </c>
       <c r="O84">
-        <v>338.7936363636363</v>
+        <v>338.7936363636364</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>5.44</v>
       </c>
       <c r="O91">
-        <v>355.2072727272728</v>
+        <v>355.2072727272727</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>4.7</v>
       </c>
       <c r="O100">
-        <v>382.9668181818182</v>
+        <v>382.9668181818181</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>2.23</v>
       </c>
       <c r="O103">
-        <v>390.7775000000001</v>
+        <v>390.7775</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>3.35</v>
       </c>
       <c r="O111">
-        <v>411.6522727272726</v>
+        <v>411.6522727272728</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>3.7</v>
       </c>
       <c r="O112">
-        <v>414.8868181818182</v>
+        <v>414.8868181818181</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>6.18</v>
       </c>
       <c r="O144">
-        <v>554.8815909090908</v>
+        <v>554.881590909091</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>6.57</v>
       </c>
       <c r="O147">
-        <v>573.5070454545454</v>
+        <v>573.5070454545455</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>7.91</v>
       </c>
       <c r="O154">
-        <v>613.1202272727273</v>
+        <v>613.1202272727272</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>6.32</v>
       </c>
       <c r="O156">
-        <v>621.6754545454545</v>
+        <v>621.6754545454546</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>3.72</v>
       </c>
       <c r="O182">
-        <v>662.0411363636363</v>
+        <v>662.0411363636364</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>3.53</v>
       </c>
       <c r="O186">
-        <v>662.0809090909091</v>
+        <v>662.080909090909</v>
       </c>
       <c r="P186">
         <v>1</v>
@@ -10002,7 +10002,7 @@
         <v>1.91</v>
       </c>
       <c r="O189">
-        <v>660.3538636363637</v>
+        <v>660.3538636363636</v>
       </c>
       <c r="P189">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>6.68</v>
       </c>
       <c r="O190">
-        <v>659.6395454545456</v>
+        <v>659.6395454545454</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>2.5</v>
       </c>
       <c r="O198">
-        <v>665.1781818181818</v>
+        <v>665.1781818181819</v>
       </c>
       <c r="P198">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>3.54</v>
       </c>
       <c r="O202">
-        <v>675.5875000000001</v>
+        <v>675.5875</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -12601,7 +12601,7 @@
         <v>2.64</v>
       </c>
       <c r="O233">
-        <v>747.3795454545453</v>
+        <v>747.3795454545456</v>
       </c>
       <c r="P233">
         <v>0</v>
